--- a/TQ_Part_Categories.xlsx
+++ b/TQ_Part_Categories.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Bike Category Codes" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Bike Category Codes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Bike Category Codes</t>
   </si>
@@ -111,15 +113,15 @@
   </si>
   <si>
     <t>Other Accessories</t>
+  </si>
+  <si>
+    <t>Bikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -132,7 +134,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -273,46 +275,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,26 +324,82 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -540,7 +598,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -559,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,9 +868,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -829,7 +893,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -848,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,9 +1159,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1111,7 +1181,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1130,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,318 +1451,316 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8047" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/TQ_Part_Categories.xlsx
+++ b/TQ_Part_Categories.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet 1 - Bike Category Codes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Bike Category Codes</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Side Stand Extender</t>
   </si>
   <si>
-    <t>TPB</t>
-  </si>
-  <si>
-    <t>Top Box’s, Panniers and Brackets</t>
-  </si>
-  <si>
     <t>WFP</t>
   </si>
   <si>
@@ -116,6 +110,174 @@
   </si>
   <si>
     <t>Bikes</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Top Box</t>
+  </si>
+  <si>
+    <t>TBB</t>
+  </si>
+  <si>
+    <t>Top Box Bracket</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Pannier</t>
+  </si>
+  <si>
+    <t>Back rest pad</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>4x4  Cat Codes</t>
+  </si>
+  <si>
+    <t>4x4 Cat Descriptions</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Bull Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP </t>
+  </si>
+  <si>
+    <t>Fender Plates</t>
+  </si>
+  <si>
+    <t>Bonnet Protector</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>FFPP</t>
+  </si>
+  <si>
+    <t>Fuel Filler Protection Plate</t>
+  </si>
+  <si>
+    <t>HLJB</t>
+  </si>
+  <si>
+    <t>Hi Lift Jack mounting Bracket</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Console Safe</t>
+  </si>
+  <si>
+    <t>FSE</t>
+  </si>
+  <si>
+    <t>Front Seat Extension Rail</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Battery Tray</t>
+  </si>
+  <si>
+    <t>RAI</t>
+  </si>
+  <si>
+    <t>Raised Air Intake</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Steering Guard</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>SSK</t>
+  </si>
+  <si>
+    <t>Side Sill Kit</t>
+  </si>
+  <si>
+    <t>FTG</t>
+  </si>
+  <si>
+    <t>Fuel Tank Guard</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Tank </t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Side Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS </t>
+  </si>
+  <si>
+    <t>Wheel Spacer</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Roof Rack</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Drawer Unit</t>
+  </si>
+  <si>
+    <t>HDTH</t>
+  </si>
+  <si>
+    <t>Heavey Duty Tow Hitch</t>
+  </si>
+  <si>
+    <t>SUG</t>
+  </si>
+  <si>
+    <t>Sump Guard</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>Under Bumper Winch Plate</t>
+  </si>
+  <si>
+    <t>Swing Away Spare Wheel Carrier</t>
+  </si>
+  <si>
+    <t>RRM</t>
+  </si>
+  <si>
+    <t>Roof Rack Mounting Kit</t>
+  </si>
+  <si>
+    <t>RDL</t>
+  </si>
+  <si>
+    <t>Rear Door Ladder</t>
   </si>
 </sst>
 </file>
@@ -140,7 +302,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +319,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,7 +447,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -312,6 +480,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,41 +1662,46 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="17" customWidth="1"/>
+    <col min="6" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -1519,8 +1713,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -1532,8 +1730,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
@@ -1545,8 +1747,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
@@ -1558,8 +1764,12 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
@@ -1571,8 +1781,12 @@
         <v>10</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
@@ -1584,8 +1798,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
@@ -1597,152 +1815,216 @@
         <v>14</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
@@ -1750,17 +2032,73 @@
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/TQ_Part_Categories.xlsx
+++ b/TQ_Part_Categories.xlsx
@@ -447,7 +447,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -504,6 +504,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,7 +1674,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1730,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
@@ -1747,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -1764,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -1781,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1798,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -1815,7 +1821,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -1832,7 +1838,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="16" t="s">
@@ -1849,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -1866,7 +1872,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -1883,7 +1889,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -1900,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -1917,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="19" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -1934,7 +1940,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -1951,7 +1957,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -1968,7 +1974,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -1985,7 +1991,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -2002,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -2019,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="19" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -2032,7 +2038,7 @@
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -2045,7 +2051,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -2058,7 +2064,7 @@
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2071,7 +2077,7 @@
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2084,7 +2090,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="8" t="s">

--- a/TQ_Part_Categories.xlsx
+++ b/TQ_Part_Categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Bike Category Codes</t>
   </si>
@@ -142,30 +142,6 @@
     <t>4x4 Cat Descriptions</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Bull Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP </t>
-  </si>
-  <si>
-    <t>Fender Plates</t>
-  </si>
-  <si>
-    <t>Bonnet Protector</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>FFPP</t>
-  </si>
-  <si>
-    <t>Fuel Filler Protection Plate</t>
-  </si>
-  <si>
     <t>HLJB</t>
   </si>
   <si>
@@ -190,18 +166,6 @@
     <t>Battery Tray</t>
   </si>
   <si>
-    <t>RAI</t>
-  </si>
-  <si>
-    <t>Raised Air Intake</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Steering Guard</t>
-  </si>
-  <si>
     <t>SWC</t>
   </si>
   <si>
@@ -211,18 +175,9 @@
     <t>Side Sill Kit</t>
   </si>
   <si>
-    <t>FTG</t>
-  </si>
-  <si>
-    <t>Fuel Tank Guard</t>
-  </si>
-  <si>
     <t>FT</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel Tank </t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
@@ -253,31 +208,22 @@
     <t>Heavey Duty Tow Hitch</t>
   </si>
   <si>
-    <t>SUG</t>
-  </si>
-  <si>
-    <t>Sump Guard</t>
-  </si>
-  <si>
-    <t>BWP</t>
-  </si>
-  <si>
-    <t>Under Bumper Winch Plate</t>
-  </si>
-  <si>
     <t>Swing Away Spare Wheel Carrier</t>
   </si>
   <si>
-    <t>RRM</t>
-  </si>
-  <si>
-    <t>Roof Rack Mounting Kit</t>
-  </si>
-  <si>
     <t>RDL</t>
   </si>
   <si>
     <t>Rear Door Ladder</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>Fuel  Tank</t>
   </si>
 </sst>
 </file>
@@ -502,14 +448,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,7 +1620,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1688,15 +1634,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1736,11 +1682,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="19" t="s">
-        <v>42</v>
+      <c r="D4" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1753,11 +1699,11 @@
         <v>6</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="19" t="s">
-        <v>44</v>
+      <c r="D5" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1770,11 +1716,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="19" t="s">
-        <v>47</v>
+      <c r="D6" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1787,11 +1733,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="19" t="s">
-        <v>48</v>
+      <c r="D7" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1804,11 +1750,11 @@
         <v>12</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="19" t="s">
-        <v>50</v>
+      <c r="D8" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1821,11 +1767,11 @@
         <v>14</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="19" t="s">
-        <v>52</v>
+      <c r="D9" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1838,11 +1784,11 @@
         <v>33</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="19" t="s">
-        <v>54</v>
+      <c r="D10" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1855,11 +1801,11 @@
         <v>35</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="19" t="s">
-        <v>56</v>
+      <c r="D11" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1872,11 +1818,11 @@
         <v>38</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="19" t="s">
-        <v>58</v>
+      <c r="D12" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1889,11 +1835,11 @@
         <v>37</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="19" t="s">
-        <v>60</v>
+      <c r="D13" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1906,11 +1852,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="19" t="s">
-        <v>62</v>
+      <c r="D14" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1923,11 +1869,11 @@
         <v>18</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="19" t="s">
-        <v>63</v>
+      <c r="D15" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1940,11 +1886,11 @@
         <v>20</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="19" t="s">
-        <v>65</v>
+      <c r="D16" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1958,10 +1904,10 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1974,12 +1920,8 @@
         <v>24</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
@@ -1991,12 +1933,8 @@
         <v>26</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
@@ -2008,12 +1946,8 @@
         <v>28</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>74</v>
-      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
@@ -2025,12 +1959,8 @@
         <v>30</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
@@ -2038,12 +1968,8 @@
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
@@ -2051,12 +1977,8 @@
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
@@ -2064,12 +1986,8 @@
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
@@ -2077,12 +1995,8 @@
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
@@ -2090,12 +2004,8 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
